--- a/Banco Central/11/1/1/Ventas comercio 1993 a 2021 - Trimestral.xlsx
+++ b/Banco Central/11/1/1/Ventas comercio 1993 a 2021 - Trimestral.xlsx
@@ -5123,7 +5123,7 @@
         <v>80.88</v>
       </c>
       <c r="F111">
-        <v>82.97</v>
+        <v>83.03</v>
       </c>
       <c r="G111">
         <v>31.99</v>
@@ -5132,37 +5132,37 @@
         <v>84.26000000000001</v>
       </c>
       <c r="I111">
-        <v>125.13</v>
+        <v>125.24</v>
       </c>
       <c r="J111">
-        <v>80.39</v>
+        <v>80.37</v>
       </c>
       <c r="K111">
         <v>76.47</v>
       </c>
       <c r="L111">
-        <v>55.63</v>
+        <v>56.08</v>
       </c>
       <c r="M111">
         <v>101.75</v>
       </c>
       <c r="N111">
-        <v>73.25</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="O111">
         <v>85.45999999999999</v>
       </c>
       <c r="P111">
-        <v>51.46</v>
+        <v>51.27</v>
       </c>
       <c r="Q111">
-        <v>91.70999999999999</v>
+        <v>91.69</v>
       </c>
       <c r="R111">
-        <v>78.01000000000001</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="S111">
-        <v>65.20999999999999</v>
+        <v>65.01000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:33">
@@ -5330,6 +5330,51 @@
       </c>
       <c r="B115">
         <v>73.66</v>
+      </c>
+      <c r="E115">
+        <v>130.14</v>
+      </c>
+      <c r="F115">
+        <v>187.87</v>
+      </c>
+      <c r="G115">
+        <v>149.9</v>
+      </c>
+      <c r="H115">
+        <v>140.02</v>
+      </c>
+      <c r="I115">
+        <v>222.08</v>
+      </c>
+      <c r="J115">
+        <v>116.46</v>
+      </c>
+      <c r="K115">
+        <v>108.04</v>
+      </c>
+      <c r="L115">
+        <v>70.54000000000001</v>
+      </c>
+      <c r="M115">
+        <v>121.47</v>
+      </c>
+      <c r="N115">
+        <v>98.61</v>
+      </c>
+      <c r="O115">
+        <v>114.7</v>
+      </c>
+      <c r="P115">
+        <v>131.57</v>
+      </c>
+      <c r="Q115">
+        <v>145.2</v>
+      </c>
+      <c r="R115">
+        <v>107.12</v>
+      </c>
+      <c r="S115">
+        <v>106.67</v>
       </c>
     </row>
   </sheetData>
